--- a/Selection/IF.xlsx
+++ b/Selection/IF.xlsx
@@ -58,12 +58,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -80,11 +86,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -26377,8 +26389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2871"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A2043" workbookViewId="0">
+      <selection activeCell="E2058" sqref="E2058"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -49036,13 +49048,13 @@
       </c>
     </row>
     <row r="2060" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2060" s="1">
+      <c r="A2060" s="2">
         <v>43392</v>
       </c>
-      <c r="B2060">
+      <c r="B2060" s="3">
         <v>3140</v>
       </c>
-      <c r="C2060">
+      <c r="C2060" s="3">
         <v>3134.9454999999998</v>
       </c>
     </row>
@@ -49256,13 +49268,13 @@
       </c>
     </row>
     <row r="2080" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2080" s="1">
+      <c r="A2080" s="2">
         <v>43420</v>
       </c>
-      <c r="B2080">
+      <c r="B2080" s="3">
         <v>3267.84</v>
       </c>
-      <c r="C2080">
+      <c r="C2080" s="3">
         <v>3257.6734999999999</v>
       </c>
     </row>
